--- a/biology/Botanique/Stanhopea_ruckeri/Stanhopea_ruckeri.xlsx
+++ b/biology/Botanique/Stanhopea_ruckeri/Stanhopea_ruckeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea ruckeri est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) présente au Mexique et en Amérique centrale .
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epiphyte parfumée, de taille moyenne, avec des pseudobulbes ovoïdes, côtelés, vert foncé enveloppés à la base par plusieurs gaines sèches et portant une seule feuille apicale, nervurée, plissée, elliptique, se rétrécissant progressivement en dessous en une feuille de base allongée et pétiolée qui fleurit à l'automne sur un pendant, racémeux, plusieurs [4 à 7] inflorescence fleurie naissant sur un pseudobulbe mature qui est sous-tendu par de grandes bractées chartacées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epiphyte parfumée, de taille moyenne, avec des pseudobulbes ovoïdes, côtelés, vert foncé enveloppés à la base par plusieurs gaines sèches et portant une seule feuille apicale, nervurée, plissée, elliptique, se rétrécissant progressivement en dessous en une feuille de base allongée et pétiolée qui fleurit à l'automne sur un pendant, racémeux, plusieurs [4 à 7] inflorescence fleurie naissant sur un pseudobulbe mature qui est sous-tendu par de grandes bractées chartacées.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orchidée est originaire du Belize, du Salvador, du Guatemala, du Honduras, du Mexique et du Nicaragua. Il pousse dans les forêts de montagne intermédiaires à chaudes de 800 à 1 400 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orchidée est originaire du Belize, du Salvador, du Guatemala, du Honduras, du Mexique et du Nicaragua. Il pousse dans les forêts de montagne intermédiaires à chaudes de 800 à 1 400 m d'altitude.
 </t>
         </is>
       </c>
